--- a/doc/NLP小说句子的整理.xlsx
+++ b/doc/NLP小说句子的整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14235BD6-65DC-DC4E-B59A-947ECC3EF84D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A19F7DD-3756-414E-91CB-D6A77B28D34E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="27840" windowHeight="16940" xr2:uid="{8BEDBE0C-3B3B-5F43-B836-9461E7A2E22D}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="15960" xr2:uid="{8BEDBE0C-3B3B-5F43-B836-9461E7A2E22D}"/>
   </bookViews>
   <sheets>
     <sheet name=" 小说解析" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>主语</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,6 +158,13 @@
   </si>
   <si>
     <t xml:space="preserve"> |------------------------------</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两株大松树下围着一堆村民，男男女女和十几个小孩，正自聚精会神的听着一个瘦削的老者说话。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---一抹斜阳映照之下</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -560,20 +567,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384493DF-AFFD-D945-A11C-A0C078CC7BB3}">
-  <dimension ref="A2:Q14"/>
+  <dimension ref="A2:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H20"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="11" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="26">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="26">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -583,131 +590,143 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="19">
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="19">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="H4" t="s">
+    <row r="4" spans="1:19">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="H5" t="s">
+    <row r="5" spans="1:19">
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="K6" t="s">
+    <row r="6" spans="1:19">
+      <c r="M6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19">
+    <row r="8" spans="1:19" ht="19">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>32</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17" customHeight="1">
-      <c r="H9" t="s">
+    <row r="9" spans="1:19" ht="17" customHeight="1">
+      <c r="J9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="17" customHeight="1">
-      <c r="H10" t="s">
+    <row r="10" spans="1:19" ht="17" customHeight="1">
+      <c r="J10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="17" customHeight="1"/>
-    <row r="12" spans="1:17" ht="17" customHeight="1"/>
-    <row r="13" spans="1:17" ht="19">
+    <row r="11" spans="1:19" ht="17" customHeight="1"/>
+    <row r="12" spans="1:19" ht="17" customHeight="1"/>
+    <row r="13" spans="1:19" ht="19">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>25</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="H14" t="s">
+    <row r="14" spans="1:19">
+      <c r="J14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>28</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/NLP小说句子的整理.xlsx
+++ b/doc/NLP小说句子的整理.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A19F7DD-3756-414E-91CB-D6A77B28D34E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1C49EA-05A6-A04F-BB59-8C2ED02326C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="15960" xr2:uid="{8BEDBE0C-3B3B-5F43-B836-9461E7A2E22D}"/>
+    <workbookView xWindow="36040" yWindow="3500" windowWidth="24860" windowHeight="13580" xr2:uid="{8BEDBE0C-3B3B-5F43-B836-9461E7A2E22D}"/>
   </bookViews>
   <sheets>
     <sheet name=" 小说解析" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,19 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>主语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谓语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="207">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,10 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>东流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>牛家村</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -97,10 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> |---牛家村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>江畔一排数十株乌柏树，叶子似火烧般红，正是八月天时。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,29 +129,960 @@
     <t>萧索</t>
   </si>
   <si>
-    <t xml:space="preserve"> |---------------</t>
+    <t xml:space="preserve"> |---一抹斜阳映照之下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两株大松树下围着一堆村民，男男女女和十几个小孩，正自聚精会神的听着一个瘦削的老者说话。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>村民</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---一堆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---两株大松树下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---男男女女和十几个小孩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听着</t>
+  </si>
+  <si>
+    <t>说话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---正自聚精会神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |------------------------------------------------------</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---------------------------------------</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那说话人五十来岁年纪，一件青布长袍早洗得褪成了蓝灰色。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只听他两片梨花木板碰了几下，右手中竹棒在一面小羯鼓上敲起得得连声。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那说话人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---五十来岁年纪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---一件青布长袍早洗得褪成了蓝灰色。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---梨花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---两片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他</t>
+  </si>
+  <si>
+    <t>碰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---几下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---右手中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲</t>
+  </si>
+  <si>
+    <t>小羯鼓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---一面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---得得连声</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老者</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---瘦削的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱道：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　“小桃无主自开花，烟草茫茫带晚鸦。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　几处败垣围故井，向来一一是人家。”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“小桃无主自开花，烟草茫茫带晚鸦。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几处败垣围故井，向来一一是人家。”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>村民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---聚精会神的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听着</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流入</t>
+  </si>
+  <si>
+    <t>海</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>正是</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> |------------------------------</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两株大松树下围着一堆村民，男男女女和十几个小孩，正自聚精会神的听着一个瘦削的老者说话。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> |---一抹斜阳映照之下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那说话人将木板敲了几下，说道：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“这首七言诗，说的是兵火过后，原来是家家户户，都变成了断墙残瓦的破败之地。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小人刚才说到那叶老汉一家四口，悲欢离合，聚了又散，散了又聚。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他四人给金兵冲散，好容易又再团聚，欢天喜地的回到故乡，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>却见房屋已给金兵烧得干干净净，无可奈何，只得去到汴梁，想觅个生计。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提起狼牙棒，一棒打在叶四郎的头上，登时脑浆迸裂，一命呜呼。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正是：阴间新添枉死鬼，阳间不见少年人！”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那叶三姐如何肯从？拼命挣扎。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带兵的头儿一双三角眼觑将过去，只见那叶三姐生得美貌，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶老汉和妈妈吓得呆了，扑将上去，搂住了儿子的死尸，放声大哭。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那长官提起狼牙棒，一棒一个，又都了账。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那长官大喜，将叶三姐带得回家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不料叶三姐觑他不防，突然抢步过去，拔出那长官的腰刀，对准了他心口，一刀刺将过去，说时迟，那时快，这一刀刺去，眼见便可报得父母兄弟的大仇。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶三姐已举起钢刀，在脖子中一勒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怜她：花容月貌无双女，惆怅芳魂赴九泉。”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他说一段，唱一段，只听得众村民无不咬牙切齿，愤怒叹息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳下马来，当即一把抱住，哈哈大笑，便将她放上了马鞍，说道：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘小姑娘，跟我回家，服侍老爷。’</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那金兵长官喝道：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘你不肯从我，便杀了你的父母兄弟！’</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那叶三姐却不啼哭，说道：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘长官休得凶恶，我跟你回家便了！‘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不料那长官久经战阵，武艺精熟，顺手一推，叶三姐登时摔了出去，那长官刚骂得一声：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘小贱人！’</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七言诗</t>
+  </si>
+  <si>
+    <t>说的是</t>
+  </si>
+  <si>
+    <t>原来是家家户户，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> |---都变成了断墙残瓦的破败之地。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说到</t>
+  </si>
+  <si>
+    <t>|---刚才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---叶老汉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一家四口，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---悲欢离合，聚了又散，散了又聚。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再团聚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---给金兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---好容易又</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回</t>
+  </si>
+  <si>
+    <t>|---欢天喜地的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>故乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---------------------------------------</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不料想</t>
+  </si>
+  <si>
+    <t>不料想：天有不测风云，人有旦夕祸福。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他四人刚进汴梁城，迎面便过来一队金兵。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那人又说道：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“众位看官，常言道得好：</t>
+  </si>
+  <si>
+    <t>为人切莫用欺心，举头三尺有神明。</t>
+  </si>
+  <si>
+    <t>若还作恶无报应，天下凶徒人吃人。</t>
+  </si>
+  <si>
+    <t>可是那金兵占了我大宋天下，杀人放火，奸淫掳掠，无恶不作，却又不见他遭到什么报应。</t>
+  </si>
+  <si>
+    <t>只怪我大宋官家不争气，我中国本来兵多将广，可是一见到金兵到来，便远远的逃之夭夭，只剩下老百姓遭殃。</t>
+  </si>
+  <si>
+    <t>好似那叶三姐一家的惨祸，江北之地，实是成千成万，便如家常便饭一般。</t>
+  </si>
+  <si>
+    <t>诸君住在江南，当真是在天堂里了，怕只怕何日金兵到来。</t>
+  </si>
+  <si>
+    <r>
+      <t>正是：宁作太平犬，莫为乱世人。小人张十五，今日路经贵地，服侍众位看官这一段说话，叫作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叶三姐节烈记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>话本说彻，权作散场。”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将两片梨花木板拍拍拍的乱敲一阵，托出一只盘子。</t>
+  </si>
+  <si>
+    <t>众村民便有人拿出两文三文，放入木盘，霎时间得了六七十文。</t>
+  </si>
+  <si>
+    <t>张十五谢了，将铜钱放囊中，便欲起行。</t>
+  </si>
+  <si>
+    <t>张十五见他身材魁梧，浓眉大眼，便道：</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正是。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>那大汉道：</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小弟作东，请先生去饮上三杯如何？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>张十五大喜，说道：</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>素不相识，怎敢叨扰？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>那大汉笑道：</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮上三杯，那便相识了。我姓郭，叫郭啸天。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>指着身边一个白净面皮的汉子道</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这位是杨铁心杨兄弟。适才我二人听先生说唱叶三姐节烈记，果然是说得好，却有几句话想要请问。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>张十五道：</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好说，好说。今日得遇郭杨二位，也是有缘。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>郭啸天带着张十五来到村头一家小酒店中，在张板桌旁坐了。</t>
+  </si>
+  <si>
+    <t>村民中走出一个二十来岁的大汉，说道：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“张先生，你可是从北方来的吗？”</t>
+  </si>
+  <si>
+    <t>小酒店的主人是个跛子，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撑着两根拐杖，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢慢烫了两壶黄酒，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆出一碟蚕豆、一碟咸花生、一碟豆腐干，另有三个切开的咸蛋，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行在门口板凳上坐了，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬头瞧着天边正要落山的太阳，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人</t>
+  </si>
+  <si>
+    <t>撑着</t>
+  </si>
+  <si>
+    <t>拐杖</t>
+  </si>
+  <si>
+    <t>|---两根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烫了</t>
+  </si>
+  <si>
+    <t>|---慢慢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄酒</t>
+  </si>
+  <si>
+    <t>|---两壶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆出</t>
+  </si>
+  <si>
+    <t>蚕豆</t>
+  </si>
+  <si>
+    <t>咸花生</t>
+  </si>
+  <si>
+    <t>豆腐干</t>
+  </si>
+  <si>
+    <t>咸蛋</t>
+  </si>
+  <si>
+    <t>|---三个切开的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---一碟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐了</t>
+  </si>
+  <si>
+    <t>|---在门口板凳上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---自行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>却更不向三人望上一眼。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>望上一眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---不向三人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|---小酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>跛子</t>
+  </si>
+  <si>
+    <t>郭啸天斟了酒，劝张十五喝了两杯，说道：</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乡下地方，只初二、十六方有肉卖。没了下酒之物，先生莫怪。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>张十五笑道</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有酒便好。听两位口音，遮莫也是北方人。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>杨铁心道：</t>
+  </si>
+  <si>
+    <t>“我两兄弟原是山东人氏。只因受不了金狗的肮脏气，三年前来到此间，爱这里人情厚，便住了下来。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚才听得先生说道，我们住在江南，犹似在天堂里一般，怕只怕金兵何日到来。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你说金兵会不会打过江来？”</t>
+  </si>
+  <si>
+    <t>张十五叹道：</t>
+  </si>
+  <si>
+    <t>江南花花世界，遍地皆是金银，放眼但见美女，金兵又有哪一日不想过来？</t>
+  </si>
+  <si>
+    <r>
+      <t>只是他来与不来，拿主意的却不是金国，而是临安的大宋朝廷。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>郭啸天和杨铁心齐感诧异，同声问道：</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这却是怎生说？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>“我中国百姓，比女真人多上一百倍也还不止。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要朝廷肯用忠臣良将，咱们一百个打他一个，金兵如何能够抵挡？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我大宋北方这半壁江山，是当年徽宗、钦宗、高宗他父子三人奉送给金人的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这三个皇帝任用奸臣，欺压百姓，把出力抵抗金兵的大将罢免的罢免，杀头的杀头。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花江山，双手送将过去，金人却之不恭，也只得收了。</t>
+  </si>
+  <si>
+    <r>
+      <t>今后朝廷倘若仍是任用奸臣，那就是跪在地下，请金兵驾到，他又如何不来？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>郭啸天伸手在桌上重重一拍，只拍得杯儿、筷儿、碟儿都跳将起来，说道：</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正是！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想当年徽宗道君皇帝一心只想长生不老，要做神仙，所用的奸臣，像蔡京、王黼，是帮皇帝搜刮的无耻之徒；</t>
+    </r>
+  </si>
+  <si>
+    <t>像童贯、梁师成，是只会吹牛拍马的太监；像高俅、李邦彦，是陪皇帝嫖院玩耍的浪子。</t>
+  </si>
+  <si>
+    <t>道君皇帝正事诸般不理，整里不是求仙学道，便是派人到各处去寻找稀奇古怪的花木石头。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦金兵打到跟前来，他束手无策，头一缩，便将皇位传给了儿子钦宗。</t>
+  </si>
+  <si>
+    <t>那时忠臣李纲守住了京城汴梁，各路大将率兵勤王，金兵攻打不进，只得退兵。</t>
+  </si>
+  <si>
+    <t>不料想钦宗听信了奸臣的话，竟将李纲罢免了，又不用威名素著、能征惯战的宿将，却信用一个自称能请天神天将，会得呼风唤雨的骗子郭京，叫他请天将守城。天将不肯来，这京城又如何不破？</t>
+  </si>
+  <si>
+    <r>
+      <t>终于徽宗、钦宗都给金兵掳了去。这两个昏君自作自受，那也罢了，可害苦了我中国千千万万百姓。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,8 +1121,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,12 +1148,141 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -240,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +1303,75 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,183 +1688,2225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384493DF-AFFD-D945-A11C-A0C078CC7BB3}">
-  <dimension ref="A2:S18"/>
+  <dimension ref="A1:S321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" customWidth="1"/>
-    <col min="12" max="13" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="36" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="38.5" customWidth="1"/>
+    <col min="19" max="19" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="26">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" ht="19">
-      <c r="A3" s="1" t="s">
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="M8" s="7"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" ht="19">
+      <c r="A11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="17" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" ht="17" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="M6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="19">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K13" s="7"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" ht="17" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" ht="17" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" ht="19">
+      <c r="A16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K17" s="7"/>
+      <c r="L17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17" customHeight="1">
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M25" s="15"/>
+      <c r="N25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="17" customHeight="1">
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="17" customHeight="1"/>
-    <row r="12" spans="1:19" ht="17" customHeight="1"/>
-    <row r="13" spans="1:19" ht="19">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" t="s">
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K26" s="7"/>
+      <c r="L26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="M15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="19">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="S29" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M45" s="16"/>
+      <c r="N45" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O45" s="16"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="18"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="8"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="8"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="8"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="12"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="24"/>
+      <c r="B51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="24"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="24"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="25"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="21"/>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L55" t="s">
+        <v>103</v>
+      </c>
+      <c r="N55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="21"/>
+      <c r="L56" t="s">
+        <v>104</v>
+      </c>
+      <c r="N56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="21"/>
+      <c r="N57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="21"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="25"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="21"/>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s">
+        <v>108</v>
+      </c>
+      <c r="L60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="21"/>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="J61" t="s">
+        <v>109</v>
+      </c>
+      <c r="L61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="21"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="21"/>
+      <c r="L63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="21"/>
+      <c r="L64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="21"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="21"/>
+      <c r="L66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="21"/>
+      <c r="L67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="21"/>
+      <c r="L68" t="s">
+        <v>117</v>
+      </c>
+      <c r="N68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="25"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="21"/>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="L70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="21"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="21"/>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="21"/>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="21"/>
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="21"/>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="21"/>
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="21"/>
+      <c r="B84" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="21"/>
+      <c r="B85" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="21"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="21"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="21"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="21"/>
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="21"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="21"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="21"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="21"/>
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="21"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="21"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="21"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="21"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="21"/>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
+      <c r="C100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="21"/>
+      <c r="B101" s="22"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="21"/>
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="21"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="21"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="21"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="21"/>
+      <c r="B107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="21"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="21"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="21"/>
+      <c r="B110" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="21"/>
+      <c r="B111" s="22"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="21"/>
+      <c r="B112" s="22"/>
+      <c r="C112" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="21"/>
+      <c r="B113" s="22"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="21"/>
+      <c r="B114" s="22"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="21"/>
+      <c r="B115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="21"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="21"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="21"/>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="21"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="21"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="21"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="21"/>
+      <c r="B126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="19">
+      <c r="A127" s="21"/>
+      <c r="B127" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="19">
+      <c r="A128" s="21"/>
+      <c r="B128" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="19">
+      <c r="A129" s="21"/>
+      <c r="B129" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="21"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="21"/>
+    </row>
+    <row r="132" spans="1:2" ht="19">
+      <c r="A132" s="21"/>
+      <c r="B132" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="21"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="21"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="21"/>
+    </row>
+    <row r="136" spans="1:2" ht="19">
+      <c r="A136" s="21"/>
+      <c r="B136" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="21"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="21"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="21"/>
+    </row>
+    <row r="140" spans="1:2" ht="19">
+      <c r="A140" s="21"/>
+      <c r="B140" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="21"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="21"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="21"/>
+    </row>
+    <row r="144" spans="1:2" ht="19">
+      <c r="A144" s="21"/>
+      <c r="B144" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="21"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="21"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="21"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="21"/>
+      <c r="B148" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="19">
+      <c r="A150" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="19">
+      <c r="A154" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="19">
+      <c r="A158" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="21"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="21"/>
+      <c r="B164" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="21"/>
+    </row>
+    <row r="166" spans="1:2" ht="19">
+      <c r="A166" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="21"/>
+    </row>
+    <row r="168" spans="1:2" ht="19">
+      <c r="A168" s="21"/>
+      <c r="B168" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="21"/>
+    </row>
+    <row r="171" spans="1:2" ht="19">
+      <c r="A171" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="19">
+      <c r="A172" s="21"/>
+      <c r="B172" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="21"/>
+    </row>
+    <row r="175" spans="1:2" ht="19">
+      <c r="A175" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="19">
+      <c r="A176" s="21"/>
+      <c r="B176" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="21"/>
+    </row>
+    <row r="179" spans="1:2" ht="19">
+      <c r="A179" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="19">
+      <c r="A180" s="21"/>
+      <c r="B180" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="21"/>
+    </row>
+    <row r="184" spans="1:2" ht="19">
+      <c r="A184" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="19">
+      <c r="A185" s="21"/>
+      <c r="B185" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="21"/>
+    </row>
+    <row r="189" spans="1:2" ht="19">
+      <c r="A189" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="19">
+      <c r="A190" s="21"/>
+      <c r="B190" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="21"/>
+    </row>
+    <row r="194" spans="1:14" ht="19">
+      <c r="A194" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J198" t="s">
+        <v>155</v>
+      </c>
+      <c r="L198" t="s">
+        <v>177</v>
+      </c>
+      <c r="N198" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="B199" t="s">
+        <v>150</v>
+      </c>
+      <c r="J199" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="B200" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="B201" t="s">
+        <v>152</v>
+      </c>
+      <c r="L201" t="s">
+        <v>156</v>
+      </c>
+      <c r="N201" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="B202" t="s">
+        <v>153</v>
+      </c>
+      <c r="N202" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="B203" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="B204" t="s">
+        <v>173</v>
+      </c>
+      <c r="L204" t="s">
+        <v>159</v>
+      </c>
+      <c r="N204" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="L205" t="s">
+        <v>160</v>
+      </c>
+      <c r="N205" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="L207" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="L208" t="s">
+        <v>117</v>
+      </c>
+      <c r="N208" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="209" spans="12:14">
+      <c r="N209" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="210" spans="12:14">
+      <c r="L210" t="s">
+        <v>117</v>
+      </c>
+      <c r="N210" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="211" spans="12:14">
+      <c r="N211" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="212" spans="12:14">
+      <c r="L212" t="s">
+        <v>117</v>
+      </c>
+      <c r="N212" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="213" spans="12:14">
+      <c r="N213" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="214" spans="12:14">
+      <c r="L214" t="s">
+        <v>117</v>
+      </c>
+      <c r="N214" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="215" spans="12:14">
+      <c r="N215" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="217" spans="12:14">
+      <c r="L217" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="218" spans="12:14">
+      <c r="L218" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="219" spans="12:14">
+      <c r="L219" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="221" spans="12:14">
+      <c r="L221" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="222" spans="12:14">
+      <c r="L222" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="19">
+      <c r="A225" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="19">
+      <c r="B227" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="19">
+      <c r="A230" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="19">
+      <c r="B232" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="19">
+      <c r="A235" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="B236" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="B240" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="B244" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="19">
+      <c r="A247" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="19">
+      <c r="B250" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="19">
+      <c r="B254" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="19">
+      <c r="A258" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="19">
+      <c r="B261" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="19">
+      <c r="A265" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="B267" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="B270" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" ht="19">
+      <c r="B286" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="19">
+      <c r="A290" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="19">
+      <c r="B292" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="19">
+      <c r="A295" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="19">
+      <c r="B297" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="19">
+      <c r="B301" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" ht="19">
+      <c r="B309" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" ht="19">
+      <c r="B313" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" ht="19">
+      <c r="B317" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" ht="19">
+      <c r="B321" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98A09DC-1A4E-9044-BD7E-53B2139FD784}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>